--- a/spliced/walkingToRunning/2023-03-27_19-43-15/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-43-15/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.935386657714844</v>
+        <v>1.45181941986084</v>
       </c>
       <c r="B2" t="n">
-        <v>-20.30976104736328</v>
+        <v>-10.64814472198486</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9278678894043</v>
+        <v>5.583051204681396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.922998905181885</v>
+        <v>12.47824478149414</v>
       </c>
       <c r="B3" t="n">
-        <v>-22.64658546447754</v>
+        <v>-36.90848541259766</v>
       </c>
       <c r="C3" t="n">
-        <v>13.07839107513428</v>
+        <v>23.18166542053223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-17.48348999023438</v>
+        <v>4.87645149230957</v>
       </c>
       <c r="B4" t="n">
-        <v>3.01125955581665</v>
+        <v>-11.23874282836914</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.847013473510742</v>
+        <v>11.8306131362915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-9.656459808349609</v>
+        <v>3.935386657714844</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.639880180358887</v>
+        <v>-20.30976104736328</v>
       </c>
       <c r="C5" t="n">
-        <v>1.525803089141846</v>
+        <v>10.9278678894043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20.44024848937988</v>
+        <v>6.922998905181885</v>
       </c>
       <c r="B6" t="n">
-        <v>-40.82086944580078</v>
+        <v>-22.64658546447754</v>
       </c>
       <c r="C6" t="n">
-        <v>14.10586166381836</v>
+        <v>13.07839107513428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-15.60717296600342</v>
+        <v>-17.48348999023438</v>
       </c>
       <c r="B7" t="n">
-        <v>-21.49799346923828</v>
+        <v>3.01125955581665</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6249885559082</v>
+        <v>-5.847013473510742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.734474897384644</v>
+        <v>-9.656459808349609</v>
       </c>
       <c r="B8" t="n">
-        <v>2.406877994537353</v>
+        <v>-6.639880180358887</v>
       </c>
       <c r="C8" t="n">
-        <v>10.91264820098877</v>
+        <v>1.525803089141846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31.86017036437988</v>
+        <v>20.44024848937988</v>
       </c>
       <c r="B9" t="n">
-        <v>-35.68617630004883</v>
+        <v>-40.82086944580078</v>
       </c>
       <c r="C9" t="n">
-        <v>40.4693717956543</v>
+        <v>14.10586166381836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-57.41475677490234</v>
+        <v>-15.60717296600342</v>
       </c>
       <c r="B10" t="n">
-        <v>17.37560653686523</v>
+        <v>-21.49799346923828</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.54984855651856</v>
+        <v>26.6249885559082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-13.51763439178467</v>
+        <v>1.734474897384644</v>
       </c>
       <c r="B11" t="n">
-        <v>-10.28693199157715</v>
+        <v>2.406877994537353</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.659794807434082</v>
+        <v>10.91264820098877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-20.15132904052734</v>
+        <v>31.86017036437988</v>
       </c>
       <c r="B12" t="n">
-        <v>-55.33749389648438</v>
+        <v>-35.68617630004883</v>
       </c>
       <c r="C12" t="n">
-        <v>21.29398727416992</v>
+        <v>40.4693717956543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15.73336029052734</v>
+        <v>-57.41475677490234</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.189780712127686</v>
+        <v>17.37560653686523</v>
       </c>
       <c r="C13" t="n">
-        <v>11.97433757781982</v>
+        <v>-13.54984855651856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.30455780029297</v>
+        <v>-13.51763439178467</v>
       </c>
       <c r="B14" t="n">
-        <v>-12.82610034942627</v>
+        <v>-10.28693199157715</v>
       </c>
       <c r="C14" t="n">
-        <v>17.12981605529785</v>
+        <v>-0.659794807434082</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-34.54495620727539</v>
+        <v>-20.15132904052734</v>
       </c>
       <c r="B15" t="n">
-        <v>-21.88593673706055</v>
+        <v>-55.33749389648438</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.297530174255371</v>
+        <v>21.29398727416992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34.65779495239258</v>
+        <v>15.73336029052734</v>
       </c>
       <c r="B16" t="n">
-        <v>5.878978252410889</v>
+        <v>-4.189780712127686</v>
       </c>
       <c r="C16" t="n">
-        <v>2.555978298187256</v>
+        <v>11.97433757781982</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.989975452423096</v>
+        <v>15.30455780029297</v>
       </c>
       <c r="B17" t="n">
-        <v>-18.37696075439453</v>
+        <v>-12.82610034942627</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.741829395294189</v>
+        <v>17.12981605529785</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.91487789154053</v>
+        <v>-34.54495620727539</v>
       </c>
       <c r="B18" t="n">
-        <v>-47.14267730712891</v>
+        <v>-21.88593673706055</v>
       </c>
       <c r="C18" t="n">
-        <v>13.05474662780762</v>
+        <v>-7.297530174255371</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2568814754486084</v>
+        <v>34.65779495239258</v>
       </c>
       <c r="B19" t="n">
-        <v>1.619793891906739</v>
+        <v>5.878978252410889</v>
       </c>
       <c r="C19" t="n">
-        <v>9.530179977416992</v>
+        <v>2.555978298187256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-26.04407691955566</v>
+        <v>2.989975452423096</v>
       </c>
       <c r="B20" t="n">
-        <v>-81.46482086181641</v>
+        <v>-18.37696075439453</v>
       </c>
       <c r="C20" t="n">
-        <v>51.38869094848633</v>
+        <v>-2.741829395294189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>13.91487789154053</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-47.14267730712891</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.05474662780762</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2568814754486084</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.619793891906739</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.530179977416992</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-26.04407691955566</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-81.46482086181641</v>
+      </c>
+      <c r="C23" t="n">
+        <v>51.38869094848633</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>7.554911613464355</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>0.749316930770874</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-22.46823501586914</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-8.727315902709961</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.33059024810791</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0287117958068847</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-17.04781913757324</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-51.86902236938477</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16.61567497253418</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27.31503295898437</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.940977096557617</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.65385055541992</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.707320690155029</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-6.758492469787598</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.369882583618164</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18.9058609008789</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-66.31611633300781</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.15024948120117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-72.50922393798828</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29.85196113586425</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-13.03144264221191</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-21.97713661193848</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-12.47497940063477</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.31039047241211</v>
       </c>
     </row>
   </sheetData>
